--- a/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1910.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1910.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\csk\year-volumes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-dvizhenie-evropriskoi-chasti-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF70F896-3DE2-4817-B918-2612BC07E07C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E661326A-5BD7-4CF9-A918-0CBB04EB6935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="4680" windowWidth="24885" windowHeight="19320" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
+    <workbookView xWindow="82605" yWindow="0" windowWidth="31005" windowHeight="23295" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -217,12 +222,6 @@
     <t>стр. X, 15, 93</t>
   </si>
   <si>
-    <t>чc-м</t>
-  </si>
-  <si>
-    <t>чc-ж</t>
-  </si>
-  <si>
     <t>чс-о</t>
   </si>
   <si>
@@ -239,6 +238,12 @@
   </si>
   <si>
     <t>verify:</t>
+  </si>
+  <si>
+    <t>чс-м</t>
+  </si>
+  <si>
+    <t>чс-ж</t>
   </si>
 </sst>
 </file>
@@ -248,7 +253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,9 +647,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -658,17 +663,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92751CB6-2080-4F2A-93AB-D7595671A56D}">
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="T37" sqref="T37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.68359375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -700,31 +705,31 @@
         <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -787,7 +792,7 @@
         <v>1.2654179990864378E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -850,7 +855,7 @@
         <v>3.1139646869984716E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -913,7 +918,7 @@
         <v>1.2305423562182227E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -976,7 +981,7 @@
         <v>-2.3696092168766114E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1039,7 +1044,7 @@
         <v>3.3845902175691833E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1102,7 +1107,7 @@
         <v>-4.959122316577691E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1165,7 +1170,7 @@
         <v>1.3832143736152602E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1228,7 +1233,7 @@
         <v>-3.4966852983231433E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1291,7 +1296,7 @@
         <v>4.8477263245722213E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1354,7 +1359,7 @@
         <v>-4.3261275687214606E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1417,7 +1422,7 @@
         <v>-4.0882307731720857E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1480,7 +1485,7 @@
         <v>-1.4069158825037675E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1543,7 +1548,7 @@
         <v>-3.1235096200958878E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1606,7 +1611,7 @@
         <v>-2.0029509406121804E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1669,7 +1674,7 @@
         <v>-3.5685963521018493E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1732,7 +1737,7 @@
         <v>-2.3266022827041155E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1795,7 +1800,7 @@
         <v>3.2209020778211084E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1858,7 +1863,7 @@
         <v>2.9907695925686539E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1921,7 +1926,7 @@
         <v>-6.3140852671317305E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1984,7 +1989,7 @@
         <v>-4.9743096761361016E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2047,7 +2052,7 @@
         <v>2.1987082588985629E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2110,7 +2115,7 @@
         <v>2.6203170540984644E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2173,7 +2178,7 @@
         <v>3.311661926046483E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2236,7 +2241,7 @@
         <v>1.0194688063691615E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2299,7 +2304,7 @@
         <v>5.486920422143271E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2362,7 +2367,7 @@
         <v>1.1595971925544291E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2425,7 +2430,7 @@
         <v>-1.7410915651780101E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2488,7 +2493,7 @@
         <v>3.0214991284140069E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2551,7 +2556,7 @@
         <v>-4.655092233761593E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2614,7 +2619,7 @@
         <v>-2.7468263207495625E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2677,7 +2682,7 @@
         <v>2.3434819897083514E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2740,7 +2745,7 @@
         <v>-7.7650452760664734E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2803,7 +2808,7 @@
         <v>2.3801011144939821E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2866,7 +2871,7 @@
         <v>-2.9495128432241557E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2929,7 +2934,7 @@
         <v>1.451586115263126E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2992,7 +2997,7 @@
         <v>-2.6646917759912014E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3055,7 +3060,7 @@
         <v>-5.2759374241198032E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3118,7 +3123,7 @@
         <v>4.0491808575950472E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3181,7 +3186,7 @@
         <v>3.8209866956563587E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3244,7 +3249,7 @@
         <v>4.1095609355771501E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3307,7 +3312,7 @@
         <v>7.2913335465294438E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3370,7 +3375,7 @@
         <v>-2.9329895396877248E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3433,7 +3438,7 @@
         <v>-1.8574315634765526E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3496,7 +3501,7 @@
         <v>2.0493882843773292E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3559,7 +3564,7 @@
         <v>-2.2299097104507837E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -3622,7 +3627,7 @@
         <v>-2.6605872023164778E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3685,7 +3690,7 @@
         <v>3.7077543442315175E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -3748,7 +3753,7 @@
         <v>-3.6834145521758899E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -3811,7 +3816,7 @@
         <v>4.7582370560547815E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -3874,7 +3879,7 @@
         <v>-2.7694328162191084E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -3937,14 +3942,14 @@
         <v>-1.2642281697118563E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22">
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22">
       <c r="A54" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B54" s="4">
         <f>SUM(B2:B51)</f>
@@ -3975,7 +3980,7 @@
         <v>3657171</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22">
       <c r="B55" s="4">
         <f>B52-B54</f>
         <v>0</v>

--- a/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1910.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1910.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-dvizhenie-evropriskoi-chasti-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E661326A-5BD7-4CF9-A918-0CBB04EB6935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6424FFB8-F80B-4D76-BE6F-C9F7E1A956BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="82605" yWindow="0" windowWidth="31005" windowHeight="23295" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
+    <workbookView xWindow="84735" yWindow="1755" windowWidth="29700" windowHeight="16770" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
@@ -664,7 +664,8 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
